--- a/XXL学习计划.xlsx
+++ b/XXL学习计划.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
   <si>
     <t>JavaEE(1-88)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>88 end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +123,282 @@
   </si>
   <si>
     <t>微信小程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 文件上传与下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 国际化与ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 基础加强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 商城系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26 商城系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27 商城系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 商城系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29 Struts2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 Struts2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 Struts2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 Struts2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 Struts2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34 hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35 hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37 hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38 Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39 Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41 网上商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42 网上商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43 网上商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44 网上商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45 网上商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46 maven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47 jQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48 jQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49 erp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 erp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 erp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52 erp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53 erp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54 erp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55 erp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56 erp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57 erp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58 erp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59 easyUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61 redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62 activiti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63 activiti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 activiti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65 activiti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66 项目管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67 webservice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68 webservice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69 oracle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 oracle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71 oracle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72 mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73 mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74 springmvc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 springmvc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76 shrio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77 shiro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79 品牌管理02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78 项目搭建01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80 数据库模型和商品的查询03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81 商品添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82 商品审核上架和首页筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83 用户登录和个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84 单品页查询静态化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85 购物车和订单提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86 订单流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87 项目部署和面试指导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88 js对象【end】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +426,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -195,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,6 +493,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:O89"/>
+  <dimension ref="C1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,515 +810,520 @@
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="21.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:19" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C22" s="3">
-        <v>21</v>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C23" s="3">
-        <v>22</v>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C24" s="3">
-        <v>23</v>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C25" s="3">
-        <v>24</v>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C26" s="3">
-        <v>25</v>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C27" s="3">
-        <v>26</v>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C28" s="3">
-        <v>27</v>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C29" s="3">
-        <v>28</v>
+      <c r="C29" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C30" s="3">
-        <v>29</v>
+      <c r="C30" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C31" s="3">
-        <v>30</v>
+      <c r="C31" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C32" s="3">
-        <v>31</v>
+      <c r="C32" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C33" s="3">
-        <v>32</v>
+      <c r="C33" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C34" s="3">
-        <v>33</v>
+      <c r="C34" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C35" s="3">
-        <v>34</v>
+      <c r="C35" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C36" s="3">
-        <v>35</v>
+      <c r="C36" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C37" s="3">
-        <v>36</v>
+      <c r="C37" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C38" s="3">
-        <v>37</v>
+      <c r="C38" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C39" s="3">
-        <v>38</v>
+      <c r="C39" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C40" s="3">
-        <v>39</v>
+      <c r="C40" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C41" s="3">
-        <v>40</v>
+      <c r="C41" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C42" s="3">
-        <v>41</v>
+      <c r="C42" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C43" s="3">
-        <v>42</v>
+      <c r="C43" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C44" s="3">
-        <v>43</v>
+      <c r="C44" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C45" s="3">
-        <v>44</v>
+      <c r="C45" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C46" s="3">
-        <v>45</v>
+      <c r="C46" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C47" s="3">
-        <v>46</v>
+      <c r="C47" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C48" s="3">
-        <v>47</v>
+      <c r="C48" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C49" s="3">
-        <v>48</v>
+      <c r="C49" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C50" s="3">
-        <v>49</v>
+      <c r="C50" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C51" s="3">
-        <v>50</v>
+      <c r="C51" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C52" s="3">
-        <v>51</v>
+      <c r="C52" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C53" s="3">
-        <v>52</v>
+      <c r="C53" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C54" s="3">
-        <v>53</v>
+      <c r="C54" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C55" s="3">
-        <v>54</v>
+      <c r="C55" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C56" s="3">
-        <v>55</v>
+      <c r="C56" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C57" s="3">
-        <v>56</v>
+      <c r="C57" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C58" s="3">
-        <v>57</v>
+      <c r="C58" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C59" s="3">
-        <v>58</v>
+      <c r="C59" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C60" s="3">
-        <v>59</v>
+      <c r="C60" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C61" s="3">
-        <v>60</v>
+      <c r="C61" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C62" s="3">
-        <v>61</v>
+      <c r="C62" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C63" s="3">
-        <v>62</v>
+      <c r="C63" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C64" s="3">
-        <v>63</v>
+      <c r="C64" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C65" s="3">
-        <v>64</v>
+      <c r="C65" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C66" s="3">
-        <v>65</v>
+      <c r="C66" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C67" s="3">
-        <v>66</v>
+      <c r="C67" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C68" s="3">
-        <v>67</v>
+      <c r="C68" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C69" s="3">
-        <v>68</v>
+      <c r="C69" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C70" s="3">
-        <v>69</v>
+      <c r="C70" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C71" s="3">
-        <v>70</v>
+      <c r="C71" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C72" s="3">
-        <v>71</v>
+      <c r="C72" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C73" s="3">
-        <v>72</v>
+      <c r="C73" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C74" s="3">
-        <v>73</v>
+      <c r="C74" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C75" s="3">
-        <v>74</v>
+      <c r="C75" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C76" s="3">
-        <v>75</v>
+      <c r="C76" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C77" s="3">
-        <v>76</v>
+      <c r="C77" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C78" s="3">
-        <v>77</v>
+      <c r="C78" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C79" s="3">
-        <v>78</v>
+      <c r="C79" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C80" s="3">
-        <v>79</v>
+      <c r="C80" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C81" s="3">
-        <v>80</v>
+      <c r="C81" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C82" s="3">
-        <v>81</v>
+      <c r="C82" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C83" s="3">
-        <v>82</v>
+      <c r="C83" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C84" s="3">
-        <v>83</v>
+      <c r="C84" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C85" s="3">
-        <v>84</v>
+      <c r="C85" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C86" s="3">
-        <v>85</v>
+      <c r="C86" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C87" s="3">
-        <v>86</v>
+      <c r="C87" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C88" s="3">
-        <v>87</v>
+      <c r="C88" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C89" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/XXL学习计划.xlsx
+++ b/XXL学习计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>JavaEE(1-88)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2 xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6 dom4j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017.09.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8 web&amp;tomcat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017.09.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14 mvc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017.09.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,6 +383,10 @@
   </si>
   <si>
     <t>88 js对象【end】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,30 +425,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -475,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -486,16 +456,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -801,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -812,24 +776,26 @@
     <col min="4" max="4" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="14" width="9" style="2"/>
     <col min="15" max="15" width="21.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="16" max="18" width="9" style="2"/>
+    <col min="19" max="19" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:19" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.15">
@@ -841,489 +807,454 @@
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C29" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C31" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C32" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C35" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C36" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C37" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C38" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C39" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C40" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C41" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C42" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C43" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C44" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C45" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C46" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C47" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C48" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C49" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C50" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C51" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C52" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C53" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C54" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C55" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C56" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C57" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C58" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C59" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C60" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C61" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C62" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C63" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C64" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C65" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C66" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C67" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C68" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C69" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C70" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C71" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C72" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C73" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C74" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C75" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C76" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C77" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C78" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C79" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C80" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C81" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C82" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C83" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C84" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C85" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C86" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C87" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C88" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C89" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/XXL学习计划.xlsx
+++ b/XXL学习计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
   <si>
     <t>JavaEE(1-88)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2 xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6 dom4j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,6 +50,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2017.09.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>8 web&amp;tomcat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,6 +78,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2017.09.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>14 mvc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +110,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2017.09.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,7 +402,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5 xml</t>
+    <t>JavaSE加强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,12 +441,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -445,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -456,10 +490,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,498 +803,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:S89"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
+    <col min="1" max="1" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="14" width="9" style="2"/>
     <col min="15" max="15" width="21.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9" style="2"/>
-    <col min="19" max="19" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C22" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C29" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C31" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C32" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C35" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C36" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C37" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C38" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C39" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C40" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C41" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C42" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C44" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C45" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C46" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C47" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C48" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C49" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C50" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C51" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C52" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C53" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C54" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C55" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C56" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C57" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C58" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C59" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C60" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C61" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C62" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C63" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C64" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C65" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C66" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C67" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C68" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C69" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C70" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C71" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C72" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C73" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C74" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C75" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C76" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C77" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C78" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C79" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C80" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C81" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C82" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C83" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C84" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C85" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C86" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C87" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C88" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C89" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
